--- a/Analysis/algo_comparisons.xlsx
+++ b/Analysis/algo_comparisons.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcpam\Documents\Queens\QueensGame\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F239D6-D5AD-4B35-B7E2-153CF68C2D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862EBE4-0FD5-476C-8979-15BB4A728720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8010" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{53DC925C-D06C-4163-9DE3-070D07F5BC17}"/>
+    <workbookView xWindow="57480" yWindow="-8010" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{53DC925C-D06C-4163-9DE3-070D07F5BC17}"/>
+    <workbookView xWindow="57480" yWindow="-8010" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2400DE7F-D87D-4008-87AF-59BA675BFEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Brute Force" sheetId="1" r:id="rId1"/>
     <sheet name="BF VS ID-&gt;BF" sheetId="3" r:id="rId2"/>
     <sheet name="Internal Deduction -&gt; BF" sheetId="2" r:id="rId3"/>
+    <sheet name="Internal-RowCol Deduction -&gt; BF" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="412">
   <si>
     <t>Map</t>
   </si>
@@ -944,6 +946,333 @@
   </si>
   <si>
     <t>BFOS/(ID-&gt;BFOS)</t>
+  </si>
+  <si>
+    <t>Internal + Row/Col Deduction Brute Force Optimal Seed Time (s)</t>
+  </si>
+  <si>
+    <t>IRCDBFOS Solved</t>
+  </si>
+  <si>
+    <t>IRCDBFOS Seeds</t>
+  </si>
+  <si>
+    <t>IRCDBFOS Time (s)</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_1.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_2.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_3.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_4.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_5.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_6.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_7.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_8.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_9.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_10.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_11.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_12.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_13.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_14.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_15.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_16.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_17.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_18.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_19.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_20.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_21.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_22.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_23.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_24.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_25.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_26.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_27.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_28.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_29.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_30.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_31.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_32.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_33.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_34.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_35.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_36.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_37.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_38.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_39.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_40.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_41.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_42.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_43.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_44.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_45.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_46.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_47.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_48.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_49.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_50.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_51.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_52.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_53.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_54.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_55.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_56.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_57.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_58.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_59.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_60.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_61.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_62.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_63.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_64.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_65.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_66.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_67.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_68.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_69.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_70.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_71.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_72.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_73.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_74.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_75.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_76.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_77.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_78.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_79.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_80.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_81.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_82.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_83.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_84.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_85.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_86.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_87.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_88.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_89.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_90.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_91.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_92.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_93.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_94.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_95.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_96.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_97.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_98.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_99.png</t>
+  </si>
+  <si>
+    <t>Analysis\Internal_and_rowcol_Deduction\comparison_Map_100.png</t>
+  </si>
+  <si>
+    <t>(4, 5)</t>
+  </si>
+  <si>
+    <t>IRCDBFOS Chosen Seed</t>
+  </si>
+  <si>
+    <t>IDBFOS</t>
+  </si>
+  <si>
+    <t>IRCDBFOS</t>
+  </si>
+  <si>
+    <t>IDBFOS/IRCDBFOS</t>
   </si>
 </sst>
 </file>
@@ -1560,6 +1889,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="36"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,8 +1927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="36"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="36" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1643,7 +1972,93 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2257,9 +2672,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4BB34D-9B14-4F63-9D99-350B2FD337ED}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:O103"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2281,31 +2697,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -7360,16 +7776,16 @@
     <mergeCell ref="H1:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:Z1048576">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="45" priority="14" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="43" priority="16" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7388,7 +7804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="31" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D1048576 H3:H1048576">
     <cfRule type="dataBar" priority="11">
@@ -7405,7 +7821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="30" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N103">
     <cfRule type="dataBar" priority="10">
@@ -7479,9 +7895,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DABF51-47FE-42B5-86CE-350C9C009DDB}">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AD9"/>
     </sheetView>
+    <sheetView topLeftCell="C1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7514,58 +7931,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:32" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="17" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7641,19 +8058,19 @@
       <c r="Y3" t="s">
         <v>294</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="12" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7736,20 +8153,20 @@
         <f>O4/S4</f>
         <v>0.21169590643274852</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11">
         <f>AVERAGE(C4:C103)</f>
         <v>5.1024261900000001</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="11">
         <f>AVERAGE(O4:O103)</f>
         <v>1.0989419600000001</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AE4" s="11">
         <f>AVERAGE(G4:G103)</f>
         <v>0.10339558000000001</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="11">
         <f>AVERAGE(S4:S103)</f>
         <v>5.2530800000000023E-2</v>
       </c>
@@ -7833,11 +8250,11 @@
         <f t="shared" ref="Y5:Y68" si="4">O5/S5</f>
         <v>1.3085271317829457</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -7918,16 +8335,16 @@
         <f t="shared" si="4"/>
         <v>21.33112080409634</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="12">
         <f>AC4/AD4</f>
         <v>4.6430351881367784</v>
       </c>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -8008,16 +8425,16 @@
         <f t="shared" si="4"/>
         <v>1.0803612020741775</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="12">
         <f>AC4/AE4</f>
         <v>49.348591013271545</v>
       </c>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -8098,16 +8515,16 @@
         <f t="shared" si="4"/>
         <v>0.15295178008111759</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="12">
         <f>AD4/AF4</f>
         <v>20.919954769392426</v>
       </c>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -8188,16 +8605,16 @@
         <f t="shared" si="4"/>
         <v>8862.3485714285707</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB9" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="12">
         <f>AC4/AF4</f>
         <v>97.13208612851885</v>
       </c>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -15743,7 +16160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C103">
-    <cfRule type="top10" dxfId="29" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C103 O3:O103">
     <cfRule type="dataBar" priority="33">
@@ -15760,7 +16177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G103">
-    <cfRule type="top10" dxfId="28" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="22" percent="1" rank="10"/>
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -15803,40 +16220,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M103">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 A1:C2 G2 A3:K103 N3:R103">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 N3:R103 A1:C2 A3:K103 G2">
-    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 O3:O103">
-    <cfRule type="top10" dxfId="19" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S103">
-    <cfRule type="top10" dxfId="18" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="15" percent="1" rank="10"/>
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -15863,30 +16280,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:V103">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W103">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",W3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15905,16 +16322,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Y103">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",X1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16045,8 +16462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D143EE1-07E5-409E-A06D-07E043ABA283}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K3"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16069,31 +16489,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -16133,7 +16553,7 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="N3" t="s">
         <v>176</v>
@@ -21148,16 +21568,16 @@
     <mergeCell ref="H1:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:O103">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21176,7 +21596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D103">
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 H3:H103">
     <cfRule type="dataBar" priority="5">
@@ -21193,7 +21613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H103">
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N103">
     <cfRule type="dataBar" priority="4">
@@ -21260,4 +21680,5328 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60493581-143A-4B3E-92CE-716D64C3073C}">
+  <dimension ref="A1:T103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="1">
+      <selection activeCell="R3" sqref="R3:T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>4.2199999999999998E-3</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.3270000000000001E-3</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="b">
+        <f>F4=J4</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>D4-H4</f>
+        <v>1.8929999999999997E-3</v>
+      </c>
+      <c r="O4">
+        <f>D4/H4</f>
+        <v>1.8134937688010313</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11">
+        <f>AVERAGE(D4:D103)</f>
+        <v>7.2462310000000044E-2</v>
+      </c>
+      <c r="T4" s="11">
+        <f>AVERAGE(H4:H103)</f>
+        <v>1.7713179999999992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1.1306E-2</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.2440000000000004E-3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" ref="M5:M68" si="0">F5=J5</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>D5-H5</f>
+        <v>6.0619999999999997E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O68" si="1">D5/H5</f>
+        <v>2.1559877955758959</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>5.4934999999999998E-2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.1779E-2</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N69" si="2">D6-H6</f>
+        <v>3.3155999999999998E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>2.5223839478396619</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="S6" s="12">
+        <f>S4/T4</f>
+        <v>4.0908696236361894</v>
+      </c>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0.617838</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.1772E-2</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.59606599999999998</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>28.377641006797724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1.0385E-2</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-1.2949999999999993E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.88912671232876717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>7.2208999999999995E-2</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.7369999999999998E-3</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>6.9471999999999992E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>26.382535622944829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0.10033599999999999</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.6423E-2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>8.3912999999999988E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>6.1094806064665406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1.932E-2</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0070000000000001E-2</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1.9185700099304865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>4.9782E-2</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.4904000000000001E-2</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>3.4877999999999999E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>3.3401771336553945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>0.35101500000000002</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.240402</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.11061300000000002</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1.4601168043527093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>7.6612E-2</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.5791999999999999E-2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>5.0820000000000004E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>2.9703784119106702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1.5066E-2</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9.9959999999999997E-3</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.5072028811524609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>2.1069999999999998E-2</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.175E-3</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1.3894999999999998E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2.9365853658536585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3.0282E-2</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.9397000000000001E-2</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>1.0884999999999999E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1.5611692529772645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0.19454099999999999</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.2238000000000001E-2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.18230299999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>15.896470011439776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>9.4878000000000004E-2</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.1058000000000005E-2</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1.3819999999999999E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>1.1704952009672087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>3.8247999999999997E-2</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.5129999999999997E-3</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>3.3735000000000001E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>8.4750720141812543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>0.202428</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.0972000000000001E-2</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.18145600000000001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>9.6522983024985685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>3.3574E-2</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.2926E-2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2.0648E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>2.5974005879622468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>2.4206999999999999E-2</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0045E-2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1.4161999999999999E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>2.4098556495769037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>4.2591999999999998E-2</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.7084999999999999E-2</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>2.5506999999999998E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2.492947029558092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>3.9849000000000002E-2</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1">
+        <v>7.012E-3</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>3.2837000000000005E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>5.6829720479178558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>3.5437000000000003E-2</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.7877000000000001E-2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1.7560000000000003E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1.9822677182972537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>4.1696999999999998E-2</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.1349999999999998E-3</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>3.6561999999999997E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>8.1201557935735149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>3.3105999999999997E-2</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.6340000000000001E-3</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>2.7471999999999996E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>5.8761093361732328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>3.4293999999999998E-2</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.9170000000000003E-3</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>3.0376999999999998E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>8.755169772785294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>2.0447E-2</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.0330000000000001E-3</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>1.5414000000000001E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>4.0625869262865093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1.8497E-2</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.8289999999999999E-3</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>1.5668000000000001E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>6.538352774832096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.5979999999999997E-3</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>1.4722000000000002E-2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>3.6298678099321191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>1.5886000000000001E-2</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4.5890000000000002E-3</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>1.1297000000000001E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>3.4617563739376771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>1.7770999999999999E-2</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7.1180000000000002E-3</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>1.0652999999999999E-2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>2.4966282663669568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>0.206652</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.4638999999999999E-2</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0.19201299999999999</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>14.116538014891729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>1.357E-2</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.0579999999999999E-3</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>1.1512000000000001E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>6.5937803692905739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>1.174E-2</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.2460000000000002E-3</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>9.4940000000000007E-3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>5.2270703472840605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38">
+        <v>9.195E-3</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.4429999999999999E-3</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>6.7520000000000002E-3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>3.7638149815800248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>1.2661E-2</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.805E-3</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>1.0856000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>7.0144044321329639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>1.7392000000000001E-2</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6.3639999999999999E-3</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>1.1028000000000001E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>2.732872407291012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>1.1513000000000001E-2</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7.1650000000000004E-3</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>4.3480000000000003E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>1.6068387997208653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>1.6473999999999999E-2</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.9239999999999996E-3</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>1.055E-2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>2.7808912896691425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>0.15135999999999999</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3.5043999999999999E-2</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0.116316</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>4.319141650496519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <v>1.1364000000000001E-2</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.639E-3</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>9.725000000000001E-3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>6.9334960341671756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <v>1.3061E-2</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.48E-3</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>1.0581E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>5.2665322580645162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>1.5513000000000001E-2</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.4090000000000001E-3</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>1.3104000000000001E-2</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>6.4396014943960154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>1.0253999999999999E-2</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.776E-3</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>8.4779999999999994E-3</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>5.7736486486486482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>1.4494999999999999E-2</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>1.2645E-2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>7.8351351351351344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49">
+        <v>1.1979E-2</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.8289999999999999E-3</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>6.5494805904866054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.699E-3</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>7.2710000000000006E-3</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>5.2795762213066517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51">
+        <v>1.4414E-2</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.1909999999999998E-3</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>1.2222999999999999E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>6.5787311729803744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.7030000000000001E-3</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>1.2897E-2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>8.5731062830299471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53">
+        <v>1.5580999999999999E-2</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.905E-3</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>1.3675999999999999E-2</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>8.1790026246719165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <v>9.7870000000000006E-3</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.7589999999999999E-3</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>8.0280000000000004E-3</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>5.5639567936327463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>1.2616E-2</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.8580000000000001E-3</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>1.0758E-2</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>6.7900968783638325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>1.4584E-2</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.6639999999999999E-3</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>1.2919999999999999E-2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>8.7644230769230766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>1.6403999999999998E-2</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.9059999999999999E-3</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>1.4497999999999999E-2</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>8.6065057712486883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58">
+        <v>1.1731E-2</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.3089999999999999E-3</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>9.4219999999999998E-3</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>5.0805543525335644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59">
+        <v>1.1142000000000001E-2</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.768E-3</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>9.3740000000000004E-3</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>6.3020361990950233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60">
+        <v>1.2106E-2</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.895E-3</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>1.0211000000000001E-2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>6.3883905013192619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61">
+        <v>1.4427000000000001E-2</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.9059999999999999E-3</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>1.2521000000000001E-2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>7.5692549842602315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62">
+        <v>1.4741000000000001E-2</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.8519999999999999E-3</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>1.2889000000000001E-2</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>7.9595032397408216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>4.1690999999999999E-2</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H63" s="1">
+        <v>8.0610000000000005E-3</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>3.363E-2</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>5.1719389653889092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>2.8715000000000001E-2</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4.62E-3</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>2.4095000000000002E-2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>6.2153679653679657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>0.191277</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.9546000000000001E-2</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L65" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>0.17173099999999999</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>9.7859920188273808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>2.5524999999999999E-2</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.1188999999999999E-2</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>1.4336E-2</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>2.2812583787648584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>0.16541400000000001</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.130241</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L67" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="2"/>
+        <v>3.517300000000001E-2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>1.2700608871246382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>2.9936000000000001E-2</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9.4289999999999999E-3</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>2.0507000000000001E-2</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>3.1748859900307562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>0.57642099999999996</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.14464299999999999</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" t="b">
+        <f t="shared" ref="M69:M103" si="3">F69=J69</f>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>0.431778</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O103" si="4">D69/H69</f>
+        <v>3.9851289035763915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70">
+        <v>4.7319E-2</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="1">
+        <v>6.1110000000000001E-3</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N103" si="5">D70-H70</f>
+        <v>4.1208000000000002E-2</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="4"/>
+        <v>7.7432498772704959</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>3.6596999999999998E-2</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9.0580000000000001E-3</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>2.7538999999999998E-2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="4"/>
+        <v>4.0402958710532122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>3.2998E-2</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3.7109999999999999E-3</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>2.9287000000000001E-2</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="4"/>
+        <v>8.8919428725410938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73">
+        <v>4.6591E-2</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="1">
+        <v>6.5129999999999997E-3</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L73" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>4.0078000000000003E-2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="4"/>
+        <v>7.1535390756947645</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>3.3841000000000003E-2</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3.7850000000000002E-3</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>3.0056000000000003E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="4"/>
+        <v>8.9408190224570685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <v>3.0256000000000002E-2</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3.1290999999999999E-2</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>-1.0349999999999977E-3</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="4"/>
+        <v>0.96692339650378711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>9.1003000000000001E-2</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.1689999999999998E-2</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>4.9313000000000003E-2</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="4"/>
+        <v>2.1828496042216359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>5.3358000000000003E-2</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1.376E-2</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>3.9598000000000001E-2</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="4"/>
+        <v>3.8777616279069771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>9.7087000000000007E-2</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9.1769999999999994E-3</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>8.7910000000000002E-2</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="4"/>
+        <v>10.579383240710474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>3.4875999999999997E-2</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="1">
+        <v>6.2890000000000003E-3</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="5"/>
+        <v>2.8586999999999998E-2</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="4"/>
+        <v>5.5455557322308788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>4.9894000000000001E-2</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1.6129000000000001E-2</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L80" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="5"/>
+        <v>3.3765000000000003E-2</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="4"/>
+        <v>3.0934341868683735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>3.1505999999999999E-2</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="1">
+        <v>6.7679999999999997E-3</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L81" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="5"/>
+        <v>2.4738E-2</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="4"/>
+        <v>4.6551418439716317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>4.7945000000000002E-2</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="1">
+        <v>6.8719999999999996E-3</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="5"/>
+        <v>4.1072999999999998E-2</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="4"/>
+        <v>6.9768626309662407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>3.3243000000000002E-2</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="5"/>
+        <v>2.2703000000000001E-2</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="4"/>
+        <v>3.1539848197343452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>6.1946000000000001E-2</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.6397E-2</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="5"/>
+        <v>3.5548999999999997E-2</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="4"/>
+        <v>2.3467060650831533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>3.5579E-2</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H85" s="1">
+        <v>5.7019999999999996E-3</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L85" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>2.9877000000000001E-2</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="4"/>
+        <v>6.2397404419501932</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>0.10327699999999999</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3.4287999999999999E-2</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="5"/>
+        <v>6.8988999999999995E-2</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="4"/>
+        <v>3.0120450303313113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>3.2815999999999998E-2</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1.4069999999999999E-2</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="5"/>
+        <v>1.8745999999999999E-2</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="4"/>
+        <v>2.3323383084577114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88">
+        <v>0.20860300000000001</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1.4503E-2</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L88" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>0.19410000000000002</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="4"/>
+        <v>14.383437909398056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <v>2.5246000000000001E-2</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5.0590000000000001E-3</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="5"/>
+        <v>2.0187E-2</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="4"/>
+        <v>4.9903142913619289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90">
+        <v>4.8913999999999999E-2</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1.422E-2</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="5"/>
+        <v>3.4694000000000003E-2</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="4"/>
+        <v>3.4398030942334739</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>5.2703E-2</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2.1888000000000001E-2</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L91" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="5"/>
+        <v>3.0814999999999999E-2</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="4"/>
+        <v>2.4078490497076022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>2.7654999999999999E-2</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1.7305999999999998E-2</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="5"/>
+        <v>1.0349000000000001E-2</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="4"/>
+        <v>1.5980006934011326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>3.3024999999999999E-2</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1.3651999999999999E-2</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L93" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="5"/>
+        <v>1.9373000000000001E-2</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="4"/>
+        <v>2.4190594784646939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>0.49440299999999998</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2.1323000000000002E-2</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="5"/>
+        <v>0.47308</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="4"/>
+        <v>23.186371523706793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95">
+        <v>5.8983000000000001E-2</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2.4792000000000002E-2</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="5"/>
+        <v>3.4190999999999999E-2</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="4"/>
+        <v>2.379114230396902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>3.8330999999999997E-2</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1.9116000000000001E-2</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="5"/>
+        <v>1.9214999999999996E-2</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="4"/>
+        <v>2.0051789077212803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97">
+        <v>3.1301000000000002E-2</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.6834999999999999E-2</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="5"/>
+        <v>1.4466000000000003E-2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="4"/>
+        <v>1.8592812592812595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98">
+        <v>2.7932999999999999E-2</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="1">
+        <v>5.2269999999999999E-3</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L98" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="5"/>
+        <v>2.2706E-2</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="4"/>
+        <v>5.3439831643390088</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>1.0136019999999999</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.19411300000000001</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="5"/>
+        <v>0.81948899999999991</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="4"/>
+        <v>5.2217110652042873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>4.6915999999999999E-2</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" s="1">
+        <v>7.7429999999999999E-3</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L100" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="5"/>
+        <v>3.9172999999999999E-2</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="4"/>
+        <v>6.0591502001808086</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>4.1600999999999999E-2</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1.8682000000000001E-2</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="5"/>
+        <v>2.2918999999999998E-2</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="4"/>
+        <v>2.2267958462691357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102">
+        <v>6.7791000000000004E-2</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H102" s="1">
+        <v>4.6438E-2</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="5"/>
+        <v>2.1353000000000004E-2</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="4"/>
+        <v>1.459817390929842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2.9638999999999999E-2</v>
+      </c>
+      <c r="E103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3.1779999999999998E-3</v>
+      </c>
+      <c r="I103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L103" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="5"/>
+        <v>2.6460999999999998E-2</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="4"/>
+        <v>9.3263058527375708</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:G3">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:O2 H3:O3 A4:O103">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D2 D4:D103">
+    <cfRule type="top10" dxfId="2" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D2 H1:H103 D4:D103">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09A954E7-B496-411E-B4AA-5547C32C629E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="10"/>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{013E917A-1A5F-4EC3-8E50-CE9B42C0E1F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DF3D927C-ACB3-4582-A2BD-7C1A1DFAD322}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D103 H3:H103">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22D98468-F113-4C1E-9A06-E1FDC3BF6593}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H103">
+    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N103">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9155263-F42D-4611-A1DA-5625EC9706A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09A954E7-B496-411E-B4AA-5547C32C629E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D2 H1:H103 D4:D103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{013E917A-1A5F-4EC3-8E50-CE9B42C0E1F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{DF3D927C-ACB3-4582-A2BD-7C1A1DFAD322}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22D98468-F113-4C1E-9A06-E1FDC3BF6593}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D4:D103 H3:H103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9155263-F42D-4611-A1DA-5625EC9706A9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N4:N103</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>